--- a/test_cases/Test _cases_costco.xlsx
+++ b/test_cases/Test _cases_costco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14038\Documents\piit\Homeworks\final_tc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2B123-F4BD-48D6-806A-15A1CD5EC6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC315C68-8B56-439A-A7C1-2383E5C5A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,8 @@
     <sheet name="HomePage_btns_tc" sheetId="4" r:id="rId4"/>
     <sheet name="tc31to40" sheetId="6" r:id="rId5"/>
     <sheet name="tc41to " sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="71" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="439">
   <si>
     <t>Test_case_ID</t>
   </si>
@@ -1192,6 +1193,222 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>user can navigate to membership tab</t>
+  </si>
+  <si>
+    <t>TC61</t>
+  </si>
+  <si>
+    <t>user can select shop membership tab</t>
+  </si>
+  <si>
+    <t>4. Click on shop membership tab</t>
+  </si>
+  <si>
+    <t>TC62</t>
+  </si>
+  <si>
+    <t>TC63</t>
+  </si>
+  <si>
+    <t>user can purchase personal  membership tab</t>
+  </si>
+  <si>
+    <t>5. Click on personal Membership</t>
+  </si>
+  <si>
+    <t>two options of personal are displayed</t>
+  </si>
+  <si>
+    <t>user can purchase Business  membership tab</t>
+  </si>
+  <si>
+    <t>5. Click on business Membership</t>
+  </si>
+  <si>
+    <t>two options of Buisness are displayed</t>
+  </si>
+  <si>
+    <t>TC64</t>
+  </si>
+  <si>
+    <t>TC65</t>
+  </si>
+  <si>
+    <t>user can purchase Executive personal  membership tab</t>
+  </si>
+  <si>
+    <t>6.Click on Buy new membership under Executive membership</t>
+  </si>
+  <si>
+    <t>user can Renew Executive personal  membership tab</t>
+  </si>
+  <si>
+    <t>6.Click on renew membership under Executive membership</t>
+  </si>
+  <si>
+    <t>a new page lands to sign in to proceed</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>TC67</t>
+  </si>
+  <si>
+    <t>user can select special membership for students</t>
+  </si>
+  <si>
+    <t>5. Click on special membership offer for Students</t>
+  </si>
+  <si>
+    <t>a mew window popups to visit extenatl link</t>
+  </si>
+  <si>
+    <t>TC68</t>
+  </si>
+  <si>
+    <t>4. Click on renew membership</t>
+  </si>
+  <si>
+    <t>TC69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Click on automatic renewal </t>
+  </si>
+  <si>
+    <t>a new page lands to enrol online today</t>
+  </si>
+  <si>
+    <t>TC70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can navigate to renew  membership from homepage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can select automatic renewal membership from  homepage </t>
+  </si>
+  <si>
+    <t>5.click on enrol online today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can navigate to automatic renewal membership from  homepage </t>
+  </si>
+  <si>
+    <t>user can navigate to optical tab</t>
+  </si>
+  <si>
+    <t>3.Click on the optical tab</t>
+  </si>
+  <si>
+    <t>optical dropdown opens</t>
+  </si>
+  <si>
+    <t>user can search for a optical center</t>
+  </si>
+  <si>
+    <t>4. click on find an optical center</t>
+  </si>
+  <si>
+    <t>4. click on licensed professionals</t>
+  </si>
+  <si>
+    <t>user can navigate to licensed professionals tab</t>
+  </si>
+  <si>
+    <t>4. click on lenses tab</t>
+  </si>
+  <si>
+    <t>optical tab functionality</t>
+  </si>
+  <si>
+    <t>user can navigate to readers</t>
+  </si>
+  <si>
+    <t>4. click on readers tab</t>
+  </si>
+  <si>
+    <t>a new page lands for lenses</t>
+  </si>
+  <si>
+    <t>user can navigate to lenses page</t>
+  </si>
+  <si>
+    <t>a new page lands for licensed professionals</t>
+  </si>
+  <si>
+    <t>a new page lands to find reading glasses</t>
+  </si>
+  <si>
+    <t>user can navigate to sunglasses page</t>
+  </si>
+  <si>
+    <t>Services tab functionality</t>
+  </si>
+  <si>
+    <t>user can navigate to services tab</t>
+  </si>
+  <si>
+    <t>3.Click on the services tab</t>
+  </si>
+  <si>
+    <t>user can navigate to costco services tab</t>
+  </si>
+  <si>
+    <t>user can navigate to costco installation services tab</t>
+  </si>
+  <si>
+    <t>4.click on costco Services option</t>
+  </si>
+  <si>
+    <t>4.click on costco Installation Servicesoption</t>
+  </si>
+  <si>
+    <t>photo tab functionality</t>
+  </si>
+  <si>
+    <t>3.Click on the photo tab</t>
+  </si>
+  <si>
+    <t>user can shop photo gifts</t>
+  </si>
+  <si>
+    <t>4. click on shop photo gifts</t>
+  </si>
+  <si>
+    <t>a new page lands for different photo options</t>
+  </si>
+  <si>
+    <t>TC71</t>
+  </si>
+  <si>
+    <t>TC72</t>
+  </si>
+  <si>
+    <t>TC73</t>
+  </si>
+  <si>
+    <t>TC74</t>
+  </si>
+  <si>
+    <t>TC75</t>
+  </si>
+  <si>
+    <t>TC76</t>
+  </si>
+  <si>
+    <t>TC77</t>
+  </si>
+  <si>
+    <t>TC78</t>
+  </si>
+  <si>
+    <t>TC79</t>
+  </si>
+  <si>
+    <t>TC80</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1397,11 +1614,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1501,6 +1727,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2108,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891D37A8-CDEB-4FAA-8F10-CC0C1CBF9986}">
   <dimension ref="A1:I641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122:E161"/>
+    <sheetView tabSelected="1" topLeftCell="C450" workbookViewId="0">
+      <selection activeCell="F460" sqref="F460:I463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5624,7 +5853,7 @@
       <c r="H213" s="30"/>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="11" t="s">
         <v>255</v>
       </c>
@@ -5756,7 +5985,7 @@
       <c r="H221" s="30"/>
       <c r="I221" s="30"/>
     </row>
-    <row r="222" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="s">
         <v>262</v>
       </c>
@@ -6064,7 +6293,7 @@
       <c r="H239" s="29"/>
       <c r="I239" s="22"/>
     </row>
-    <row r="240" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="11" t="s">
         <v>289</v>
       </c>
@@ -6271,7 +6500,7 @@
       <c r="H252" s="29"/>
       <c r="I252" s="29"/>
     </row>
-    <row r="253" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="11" t="s">
         <v>299</v>
       </c>
@@ -6856,7 +7085,7 @@
       <c r="H289" s="30"/>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="11" t="s">
         <v>319</v>
       </c>
@@ -6967,7 +7196,7 @@
       <c r="H296" s="30"/>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="11" t="s">
         <v>323</v>
       </c>
@@ -7093,7 +7322,7 @@
       <c r="H304" s="30"/>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="16" t="s">
         <v>324</v>
       </c>
@@ -8274,929 +8503,1385 @@
       <c r="H379" s="13"/>
       <c r="I379" s="13"/>
     </row>
-    <row r="380" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
-      <c r="D380" s="6"/>
-      <c r="E380" s="6"/>
-      <c r="F380" s="6"/>
-      <c r="G380" s="6"/>
-      <c r="H380" s="6"/>
-      <c r="I380" s="6"/>
-    </row>
-    <row r="381" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
-      <c r="D381" s="6"/>
-      <c r="E381" s="6"/>
-      <c r="F381" s="6"/>
-      <c r="G381" s="6"/>
-      <c r="H381" s="6"/>
-      <c r="I381" s="6"/>
+    <row r="380" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A380" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F380" s="31"/>
+      <c r="G380" s="31"/>
+      <c r="H380" s="31"/>
+      <c r="I380" s="31"/>
+    </row>
+    <row r="381" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A381" s="29"/>
+      <c r="B381" s="9"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F381" s="29"/>
+      <c r="G381" s="29"/>
+      <c r="H381" s="29"/>
+      <c r="I381" s="29"/>
     </row>
     <row r="382" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A382" s="6"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
-      <c r="D382" s="6"/>
-      <c r="E382" s="6"/>
-      <c r="F382" s="6"/>
-      <c r="G382" s="6"/>
-      <c r="H382" s="6"/>
-      <c r="I382" s="6"/>
-    </row>
-    <row r="383" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
-      <c r="D383" s="6"/>
-      <c r="E383" s="6"/>
-      <c r="F383" s="6"/>
-      <c r="G383" s="6"/>
-      <c r="H383" s="6"/>
-      <c r="I383" s="6"/>
-    </row>
-    <row r="384" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
-      <c r="D384" s="6"/>
-      <c r="E384" s="6"/>
-      <c r="F384" s="6"/>
-      <c r="G384" s="6"/>
-      <c r="H384" s="6"/>
-      <c r="I384" s="6"/>
+      <c r="A382" s="29"/>
+      <c r="B382" s="9"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F382" s="29"/>
+      <c r="G382" s="29"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="29"/>
+    </row>
+    <row r="383" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A383" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C383" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="11"/>
+      <c r="I383" s="11"/>
+    </row>
+    <row r="384" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A384" s="29"/>
+      <c r="B384" s="29"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F384" s="29"/>
+      <c r="G384" s="29"/>
+      <c r="H384" s="29"/>
+      <c r="I384" s="29"/>
     </row>
     <row r="385" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A385" s="6"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
-      <c r="D385" s="6"/>
-      <c r="E385" s="6"/>
-      <c r="F385" s="6"/>
-      <c r="G385" s="6"/>
-      <c r="H385" s="6"/>
-      <c r="I385" s="6"/>
+      <c r="A385" s="29"/>
+      <c r="B385" s="29"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F385" s="29"/>
+      <c r="G385" s="29"/>
+      <c r="H385" s="29"/>
+      <c r="I385" s="29"/>
     </row>
     <row r="386" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A386" s="6"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
-      <c r="D386" s="6"/>
-      <c r="E386" s="6"/>
-      <c r="F386" s="6"/>
-      <c r="G386" s="6"/>
-      <c r="H386" s="6"/>
-      <c r="I386" s="6"/>
-    </row>
-    <row r="387" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A387" s="6"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
-      <c r="D387" s="6"/>
-      <c r="E387" s="6"/>
-      <c r="F387" s="6"/>
-      <c r="G387" s="6"/>
-      <c r="H387" s="6"/>
-      <c r="I387" s="6"/>
-    </row>
-    <row r="388" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="6"/>
-      <c r="E388" s="6"/>
-      <c r="F388" s="6"/>
-      <c r="G388" s="6"/>
-      <c r="H388" s="6"/>
-      <c r="I388" s="6"/>
+      <c r="A386" s="30"/>
+      <c r="B386" s="30"/>
+      <c r="C386"/>
+      <c r="D386" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E386" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F386" s="30"/>
+      <c r="G386" s="30"/>
+      <c r="H386" s="30"/>
+      <c r="I386" s="30"/>
+    </row>
+    <row r="387" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A387" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F387" s="11"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="11"/>
+      <c r="I387" s="11"/>
+    </row>
+    <row r="388" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A388" s="29"/>
+      <c r="B388" s="29"/>
+      <c r="C388" s="29"/>
+      <c r="D388" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F388" s="29"/>
+      <c r="G388" s="29"/>
+      <c r="H388" s="29"/>
+      <c r="I388" s="29"/>
     </row>
     <row r="389" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
-      <c r="D389" s="6"/>
-      <c r="E389" s="6"/>
-      <c r="F389" s="6"/>
-      <c r="G389" s="6"/>
-      <c r="H389" s="6"/>
-      <c r="I389" s="6"/>
+      <c r="A389" s="29"/>
+      <c r="B389" s="29"/>
+      <c r="C389" s="29"/>
+      <c r="D389" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F389" s="29"/>
+      <c r="G389" s="29"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="29"/>
     </row>
     <row r="390" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A390" s="6"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
-      <c r="D390" s="6"/>
-      <c r="E390" s="6"/>
-      <c r="F390" s="6"/>
-      <c r="G390" s="6"/>
-      <c r="H390" s="6"/>
-      <c r="I390" s="6"/>
+      <c r="A390" s="29"/>
+      <c r="B390" s="29"/>
+      <c r="C390" s="29"/>
+      <c r="D390" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E390" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F390" s="29"/>
+      <c r="G390" s="29"/>
+      <c r="H390" s="29"/>
+      <c r="I390" s="29"/>
     </row>
     <row r="391" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A391" s="6"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
-      <c r="D391" s="6"/>
-      <c r="E391" s="6"/>
-      <c r="F391" s="6"/>
-      <c r="G391" s="6"/>
-      <c r="H391" s="6"/>
-      <c r="I391" s="6"/>
-    </row>
-    <row r="392" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A392" s="6"/>
-      <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
-      <c r="D392" s="6"/>
-      <c r="E392" s="6"/>
-      <c r="F392" s="6"/>
-      <c r="G392" s="6"/>
-      <c r="H392" s="6"/>
-      <c r="I392" s="6"/>
-    </row>
-    <row r="393" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A393" s="6"/>
+      <c r="A391" s="30"/>
+      <c r="B391" s="30"/>
+      <c r="C391" s="30"/>
+      <c r="D391" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E391" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F391" s="30"/>
+      <c r="G391" s="30"/>
+      <c r="H391" s="30"/>
+      <c r="I391" s="30"/>
+    </row>
+    <row r="392" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A392" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B392" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F392" s="11"/>
+      <c r="G392" s="11"/>
+      <c r="H392" s="11"/>
+      <c r="I392" s="11"/>
+    </row>
+    <row r="393" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A393" s="29"/>
       <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
-      <c r="D393" s="6"/>
-      <c r="E393" s="6"/>
-      <c r="F393" s="6"/>
-      <c r="G393" s="6"/>
-      <c r="H393" s="6"/>
-      <c r="I393" s="6"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F393" s="12"/>
+      <c r="G393" s="12"/>
+      <c r="H393" s="12"/>
+      <c r="I393" s="12"/>
     </row>
     <row r="394" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A394" s="6"/>
+      <c r="A394" s="29"/>
       <c r="B394" s="6"/>
-      <c r="C394" s="6"/>
-      <c r="D394" s="6"/>
-      <c r="E394" s="6"/>
-      <c r="F394" s="6"/>
-      <c r="G394" s="6"/>
-      <c r="H394" s="6"/>
-      <c r="I394" s="6"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F394" s="12"/>
+      <c r="G394" s="12"/>
+      <c r="H394" s="12"/>
+      <c r="I394" s="12"/>
     </row>
     <row r="395" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A395" s="6"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
-      <c r="D395" s="6"/>
-      <c r="E395" s="6"/>
-      <c r="F395" s="6"/>
-      <c r="G395" s="6"/>
-      <c r="H395" s="6"/>
-      <c r="I395" s="6"/>
+      <c r="A395" s="29"/>
+      <c r="B395"/>
+      <c r="C395" s="29"/>
+      <c r="D395" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E395" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F395" s="29"/>
+      <c r="G395" s="29"/>
+      <c r="H395" s="29"/>
+      <c r="I395" s="29"/>
     </row>
     <row r="396" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A396" s="6"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
-      <c r="F396" s="6"/>
-      <c r="G396" s="6"/>
-      <c r="H396" s="6"/>
-      <c r="I396" s="6"/>
-    </row>
-    <row r="397" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A397" s="6"/>
-      <c r="B397" s="6"/>
-      <c r="C397" s="6"/>
-      <c r="D397" s="6"/>
-      <c r="E397" s="6"/>
-      <c r="F397" s="6"/>
-      <c r="G397" s="6"/>
-      <c r="H397" s="6"/>
-      <c r="I397" s="6"/>
-    </row>
-    <row r="398" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A398" s="6"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
-      <c r="D398" s="6"/>
-      <c r="E398" s="6"/>
-      <c r="F398" s="6"/>
-      <c r="G398" s="6"/>
-      <c r="H398" s="6"/>
-      <c r="I398" s="6"/>
+      <c r="A396" s="30"/>
+      <c r="B396"/>
+      <c r="C396" s="30"/>
+      <c r="D396" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E396" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F396" s="30"/>
+      <c r="G396" s="30"/>
+      <c r="H396" s="30"/>
+      <c r="I396" s="30"/>
+    </row>
+    <row r="397" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A397" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B397" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F397" s="11"/>
+      <c r="G397" s="11"/>
+      <c r="H397" s="11"/>
+      <c r="I397" s="11"/>
+    </row>
+    <row r="398" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A398" s="29"/>
+      <c r="B398" s="29"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F398" s="29"/>
+      <c r="G398" s="29"/>
+      <c r="H398" s="29"/>
+      <c r="I398" s="29"/>
     </row>
     <row r="399" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A399" s="6"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
-      <c r="D399" s="6"/>
-      <c r="E399" s="6"/>
-      <c r="F399" s="6"/>
-      <c r="G399" s="6"/>
-      <c r="H399" s="6"/>
-      <c r="I399" s="6"/>
+      <c r="A399" s="29"/>
+      <c r="B399" s="29"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F399" s="29"/>
+      <c r="G399" s="29"/>
+      <c r="H399" s="29"/>
+      <c r="I399" s="29"/>
     </row>
     <row r="400" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A400" s="6"/>
-      <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
-      <c r="D400" s="6"/>
-      <c r="E400" s="6"/>
-      <c r="F400" s="6"/>
-      <c r="G400" s="6"/>
-      <c r="H400" s="6"/>
-      <c r="I400" s="6"/>
+      <c r="A400" s="29"/>
+      <c r="B400" s="29"/>
+      <c r="C400"/>
+      <c r="D400" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E400" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F400" s="29"/>
+      <c r="G400" s="29"/>
+      <c r="H400" s="29"/>
+      <c r="I400" s="29"/>
     </row>
     <row r="401" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A401" s="6"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
-      <c r="D401" s="6"/>
-      <c r="E401" s="6"/>
-      <c r="F401" s="6"/>
-      <c r="G401" s="6"/>
-      <c r="H401" s="6"/>
-      <c r="I401" s="6"/>
-    </row>
-    <row r="402" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A402" s="6"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="6"/>
-      <c r="F402" s="6"/>
-      <c r="G402" s="6"/>
-      <c r="H402" s="6"/>
-      <c r="I402" s="6"/>
-    </row>
-    <row r="403" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A403" s="6"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
-      <c r="D403" s="6"/>
-      <c r="E403" s="6"/>
-      <c r="F403" s="6"/>
-      <c r="G403" s="6"/>
-      <c r="H403" s="6"/>
-      <c r="I403" s="6"/>
-    </row>
-    <row r="404" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A404" s="6"/>
-      <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
-      <c r="D404" s="6"/>
-      <c r="E404" s="6"/>
-      <c r="F404" s="6"/>
-      <c r="G404" s="6"/>
-      <c r="H404" s="6"/>
-      <c r="I404" s="6"/>
+      <c r="A401" s="29"/>
+      <c r="B401" s="29"/>
+      <c r="C401"/>
+      <c r="D401" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E401" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F401" s="29"/>
+      <c r="G401" s="29"/>
+      <c r="H401" s="29"/>
+      <c r="I401" s="29"/>
+    </row>
+    <row r="402" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A402" s="30"/>
+      <c r="B402" s="30"/>
+      <c r="C402"/>
+      <c r="D402" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E402" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F402" s="30"/>
+      <c r="G402" s="30"/>
+      <c r="H402" s="30"/>
+      <c r="I402" s="30"/>
+    </row>
+    <row r="403" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A403" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B403" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C403" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="11"/>
+      <c r="I403" s="11"/>
+    </row>
+    <row r="404" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A404" s="29"/>
+      <c r="B404" s="29"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F404" s="29"/>
+      <c r="G404" s="29"/>
+      <c r="H404" s="29"/>
+      <c r="I404" s="29"/>
     </row>
     <row r="405" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A405" s="6"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
-      <c r="D405" s="6"/>
-      <c r="E405" s="6"/>
-      <c r="F405" s="6"/>
-      <c r="G405" s="6"/>
-      <c r="H405" s="6"/>
-      <c r="I405" s="6"/>
+      <c r="A405" s="29"/>
+      <c r="B405" s="29"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F405" s="29"/>
+      <c r="G405" s="29"/>
+      <c r="H405" s="29"/>
+      <c r="I405" s="29"/>
     </row>
     <row r="406" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A406" s="6"/>
-      <c r="B406" s="6"/>
-      <c r="C406" s="6"/>
-      <c r="D406" s="6"/>
-      <c r="E406" s="6"/>
-      <c r="F406" s="6"/>
-      <c r="G406" s="6"/>
-      <c r="H406" s="6"/>
-      <c r="I406" s="6"/>
+      <c r="A406" s="29"/>
+      <c r="B406" s="29"/>
+      <c r="C406"/>
+      <c r="D406" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E406" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F406" s="29"/>
+      <c r="G406" s="29"/>
+      <c r="H406" s="29"/>
+      <c r="I406" s="29"/>
     </row>
     <row r="407" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A407" s="6"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
-      <c r="D407" s="6"/>
-      <c r="E407" s="6"/>
-      <c r="F407" s="6"/>
-      <c r="G407" s="6"/>
-      <c r="H407" s="6"/>
-      <c r="I407" s="6"/>
-    </row>
-    <row r="408" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A408" s="6"/>
-      <c r="B408" s="6"/>
-      <c r="C408" s="6"/>
-      <c r="D408" s="6"/>
-      <c r="E408" s="6"/>
-      <c r="F408" s="6"/>
-      <c r="G408" s="6"/>
-      <c r="H408" s="6"/>
-      <c r="I408" s="6"/>
-    </row>
-    <row r="409" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A409" s="6"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
-      <c r="D409" s="6"/>
-      <c r="E409" s="6"/>
-      <c r="F409" s="6"/>
-      <c r="G409" s="6"/>
-      <c r="H409" s="6"/>
-      <c r="I409" s="6"/>
-    </row>
-    <row r="410" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A410" s="6"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
-      <c r="D410" s="6"/>
-      <c r="E410" s="6"/>
-      <c r="F410" s="6"/>
-      <c r="G410" s="6"/>
-      <c r="H410" s="6"/>
-      <c r="I410" s="6"/>
+      <c r="A407" s="29"/>
+      <c r="B407" s="29"/>
+      <c r="C407"/>
+      <c r="D407" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E407" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F407" s="29"/>
+      <c r="G407" s="29"/>
+      <c r="H407" s="29"/>
+      <c r="I407" s="29"/>
+    </row>
+    <row r="408" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A408" s="30"/>
+      <c r="B408" s="30"/>
+      <c r="C408"/>
+      <c r="D408" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="E408" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F408" s="30"/>
+      <c r="G408" s="30"/>
+      <c r="H408" s="30"/>
+      <c r="I408" s="30"/>
+    </row>
+    <row r="409" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A409" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="11"/>
+      <c r="I409" s="11"/>
+    </row>
+    <row r="410" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A410" s="29"/>
+      <c r="B410" s="29"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F410" s="29"/>
+      <c r="G410" s="29"/>
+      <c r="H410" s="29"/>
+      <c r="I410" s="29"/>
     </row>
     <row r="411" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A411" s="6"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
-      <c r="D411" s="6"/>
-      <c r="E411" s="6"/>
-      <c r="F411" s="6"/>
-      <c r="G411" s="6"/>
-      <c r="H411" s="6"/>
-      <c r="I411" s="6"/>
+      <c r="A411" s="29"/>
+      <c r="B411" s="29"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F411" s="29"/>
+      <c r="G411" s="29"/>
+      <c r="H411" s="29"/>
+      <c r="I411" s="29"/>
     </row>
     <row r="412" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A412" s="6"/>
-      <c r="B412" s="6"/>
-      <c r="C412" s="6"/>
-      <c r="D412" s="6"/>
-      <c r="E412" s="6"/>
-      <c r="F412" s="6"/>
-      <c r="G412" s="6"/>
-      <c r="H412" s="6"/>
-      <c r="I412" s="6"/>
+      <c r="A412" s="29"/>
+      <c r="B412" s="29"/>
+      <c r="C412"/>
+      <c r="D412" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E412" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F412" s="29"/>
+      <c r="G412" s="29"/>
+      <c r="H412" s="29"/>
+      <c r="I412" s="29"/>
     </row>
     <row r="413" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A413" s="6"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
-      <c r="D413" s="6"/>
-      <c r="E413" s="6"/>
-      <c r="F413" s="6"/>
-      <c r="G413" s="6"/>
-      <c r="H413" s="6"/>
-      <c r="I413" s="6"/>
-    </row>
-    <row r="414" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A414" s="6"/>
-      <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
-      <c r="D414" s="6"/>
-      <c r="E414" s="6"/>
-      <c r="F414" s="6"/>
-      <c r="G414" s="6"/>
-      <c r="H414" s="6"/>
-      <c r="I414" s="6"/>
-    </row>
-    <row r="415" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A415" s="6"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
-      <c r="D415" s="6"/>
-      <c r="E415" s="6"/>
-      <c r="F415" s="6"/>
-      <c r="G415" s="6"/>
-      <c r="H415" s="6"/>
-      <c r="I415" s="6"/>
+      <c r="A413" s="30"/>
+      <c r="B413" s="30"/>
+      <c r="C413"/>
+      <c r="D413" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E413" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="F413" s="30"/>
+      <c r="G413" s="30"/>
+      <c r="H413" s="30"/>
+      <c r="I413" s="30"/>
+    </row>
+    <row r="414" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A414" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="11"/>
+      <c r="I414" s="11"/>
+    </row>
+    <row r="415" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A415" s="29"/>
+      <c r="B415" s="29"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F415" s="29"/>
+      <c r="G415" s="29"/>
+      <c r="H415" s="29"/>
+      <c r="I415" s="29"/>
     </row>
     <row r="416" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A416" s="6"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
-      <c r="D416" s="6"/>
-      <c r="E416" s="6"/>
-      <c r="F416" s="6"/>
-      <c r="G416" s="6"/>
-      <c r="H416" s="6"/>
-      <c r="I416" s="6"/>
+      <c r="A416" s="29"/>
+      <c r="B416" s="29"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F416" s="29"/>
+      <c r="G416" s="29"/>
+      <c r="H416" s="29"/>
+      <c r="I416" s="29"/>
     </row>
     <row r="417" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
-      <c r="D417" s="6"/>
-      <c r="E417" s="6"/>
-      <c r="F417" s="6"/>
-      <c r="G417" s="6"/>
-      <c r="H417" s="6"/>
-      <c r="I417" s="6"/>
-    </row>
-    <row r="418" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A418" s="6"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
-      <c r="D418" s="6"/>
-      <c r="E418" s="6"/>
-      <c r="F418" s="6"/>
-      <c r="G418" s="6"/>
-      <c r="H418" s="6"/>
-      <c r="I418" s="6"/>
-    </row>
-    <row r="419" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A419" s="6"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="6"/>
-      <c r="F419" s="6"/>
-      <c r="G419" s="6"/>
-      <c r="H419" s="6"/>
-      <c r="I419" s="6"/>
+      <c r="A417" s="30"/>
+      <c r="B417" s="30"/>
+      <c r="C417"/>
+      <c r="D417" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E417" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F417" s="30"/>
+      <c r="G417" s="30"/>
+      <c r="H417" s="30"/>
+      <c r="I417" s="30"/>
+    </row>
+    <row r="418" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A418" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B418" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="11"/>
+      <c r="I418" s="11"/>
+    </row>
+    <row r="419" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A419" s="29"/>
+      <c r="B419" s="29"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F419" s="29"/>
+      <c r="G419" s="29"/>
+      <c r="H419" s="29"/>
+      <c r="I419" s="29"/>
     </row>
     <row r="420" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A420" s="6"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
-      <c r="D420" s="6"/>
-      <c r="E420" s="6"/>
-      <c r="F420" s="6"/>
-      <c r="G420" s="6"/>
-      <c r="H420" s="6"/>
-      <c r="I420" s="6"/>
+      <c r="A420" s="29"/>
+      <c r="B420" s="29"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F420" s="29"/>
+      <c r="G420" s="29"/>
+      <c r="H420" s="29"/>
+      <c r="I420" s="29"/>
     </row>
     <row r="421" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A421" s="6"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="6"/>
-      <c r="D421" s="6"/>
-      <c r="E421" s="6"/>
-      <c r="F421" s="6"/>
-      <c r="G421" s="6"/>
-      <c r="H421" s="6"/>
-      <c r="I421" s="6"/>
-    </row>
-    <row r="422" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A422" s="6"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="6"/>
-      <c r="D422" s="6"/>
-      <c r="E422" s="6"/>
-      <c r="F422" s="6"/>
-      <c r="G422" s="6"/>
-      <c r="H422" s="6"/>
-      <c r="I422" s="6"/>
-    </row>
-    <row r="423" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A423" s="6"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="6"/>
-      <c r="D423" s="6"/>
-      <c r="E423" s="6"/>
-      <c r="F423" s="6"/>
-      <c r="G423" s="6"/>
-      <c r="H423" s="6"/>
-      <c r="I423" s="6"/>
+      <c r="A421" s="30"/>
+      <c r="B421" s="30"/>
+      <c r="C421"/>
+      <c r="D421" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E421" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F421" s="30"/>
+      <c r="G421" s="30"/>
+      <c r="H421" s="30"/>
+      <c r="I421" s="30"/>
+    </row>
+    <row r="422" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A422" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B422" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C422" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
+      <c r="H422" s="2"/>
+      <c r="I422" s="2"/>
+    </row>
+    <row r="423" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A423" s="29"/>
+      <c r="B423" s="29"/>
+      <c r="C423" s="29"/>
+      <c r="D423" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
     </row>
     <row r="424" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A424" s="6"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="6"/>
-      <c r="D424" s="6"/>
-      <c r="E424" s="6"/>
-      <c r="F424" s="6"/>
-      <c r="G424" s="6"/>
-      <c r="H424" s="6"/>
-      <c r="I424" s="6"/>
+      <c r="A424" s="29"/>
+      <c r="B424" s="29"/>
+      <c r="C424" s="29"/>
+      <c r="D424" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
+      <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
     </row>
     <row r="425" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A425" s="6"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="6"/>
-      <c r="D425" s="6"/>
-      <c r="E425" s="6"/>
-      <c r="F425" s="6"/>
-      <c r="G425" s="6"/>
-      <c r="H425" s="6"/>
-      <c r="I425" s="6"/>
+      <c r="A425" s="29"/>
+      <c r="B425" s="29"/>
+      <c r="C425" s="29"/>
+      <c r="D425" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E425" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F425" s="17"/>
+      <c r="G425" s="17"/>
+      <c r="H425" s="17"/>
+      <c r="I425" s="17"/>
     </row>
     <row r="426" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A426" s="6"/>
-      <c r="B426" s="6"/>
-      <c r="C426" s="6"/>
-      <c r="D426" s="6"/>
-      <c r="E426" s="6"/>
-      <c r="F426" s="6"/>
-      <c r="G426" s="6"/>
-      <c r="H426" s="6"/>
-      <c r="I426" s="6"/>
+      <c r="A426" s="30"/>
+      <c r="B426" s="30"/>
+      <c r="C426" s="30"/>
+      <c r="D426" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
     </row>
     <row r="427" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A427" s="6"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
-      <c r="D427" s="6"/>
-      <c r="E427" s="6"/>
-      <c r="F427" s="6"/>
-      <c r="G427" s="6"/>
-      <c r="H427" s="6"/>
-      <c r="I427" s="6"/>
-    </row>
-    <row r="428" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A428" s="6"/>
-      <c r="B428" s="6"/>
-      <c r="C428" s="6"/>
-      <c r="D428" s="6"/>
-      <c r="E428" s="6"/>
-      <c r="F428" s="6"/>
-      <c r="G428" s="6"/>
-      <c r="H428" s="6"/>
-      <c r="I428" s="6"/>
+      <c r="A427" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C427" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F427" s="31"/>
+      <c r="G427" s="31"/>
+      <c r="H427" s="31"/>
+      <c r="I427" s="31"/>
+    </row>
+    <row r="428" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A428" s="29"/>
+      <c r="B428" s="9"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F428" s="29"/>
+      <c r="G428" s="29"/>
+      <c r="H428" s="29"/>
+      <c r="I428" s="29"/>
     </row>
     <row r="429" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A429" s="6"/>
-      <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
-      <c r="D429" s="6"/>
-      <c r="E429" s="6"/>
-      <c r="F429" s="6"/>
-      <c r="G429" s="6"/>
-      <c r="H429" s="6"/>
-      <c r="I429" s="6"/>
+      <c r="A429" s="29"/>
+      <c r="B429" s="9"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F429" s="29"/>
+      <c r="G429" s="29"/>
+      <c r="H429" s="29"/>
+      <c r="I429" s="29"/>
     </row>
     <row r="430" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A430" s="6"/>
-      <c r="B430" s="6"/>
-      <c r="C430" s="6"/>
-      <c r="D430" s="6"/>
-      <c r="E430" s="6"/>
-      <c r="F430" s="6"/>
-      <c r="G430" s="6"/>
-      <c r="H430" s="6"/>
-      <c r="I430" s="6"/>
-    </row>
-    <row r="431" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A431" s="6"/>
-      <c r="B431" s="6"/>
-      <c r="C431" s="6"/>
-      <c r="D431" s="6"/>
-      <c r="E431" s="6"/>
-      <c r="F431" s="6"/>
-      <c r="G431" s="6"/>
-      <c r="H431" s="6"/>
-      <c r="I431" s="6"/>
+      <c r="A430" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="11"/>
+      <c r="I430" s="11"/>
+    </row>
+    <row r="431" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A431" s="29"/>
+      <c r="B431" s="29"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F431" s="29"/>
+      <c r="G431" s="29"/>
+      <c r="H431" s="29"/>
+      <c r="I431" s="29"/>
     </row>
     <row r="432" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A432" s="6"/>
-      <c r="B432" s="6"/>
-      <c r="C432" s="6"/>
-      <c r="D432" s="6"/>
-      <c r="E432" s="6"/>
-      <c r="F432" s="6"/>
-      <c r="G432" s="6"/>
-      <c r="H432" s="6"/>
-      <c r="I432" s="6"/>
+      <c r="A432" s="29"/>
+      <c r="B432" s="29"/>
+      <c r="C432" s="12"/>
+      <c r="D432" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F432" s="29"/>
+      <c r="G432" s="29"/>
+      <c r="H432" s="29"/>
+      <c r="I432" s="29"/>
     </row>
     <row r="433" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A433" s="6"/>
-      <c r="B433" s="6"/>
-      <c r="C433" s="6"/>
-      <c r="D433" s="6"/>
-      <c r="E433" s="6"/>
-      <c r="F433" s="6"/>
-      <c r="G433" s="6"/>
-      <c r="H433" s="6"/>
-      <c r="I433" s="6"/>
-    </row>
-    <row r="434" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A434" s="6"/>
-      <c r="B434" s="6"/>
-      <c r="C434" s="6"/>
-      <c r="D434" s="6"/>
-      <c r="E434" s="6"/>
-      <c r="F434" s="6"/>
-      <c r="G434" s="6"/>
-      <c r="H434" s="6"/>
-      <c r="I434" s="6"/>
-    </row>
-    <row r="435" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A435" s="6"/>
-      <c r="B435" s="6"/>
-      <c r="C435" s="6"/>
-      <c r="D435" s="6"/>
-      <c r="E435" s="6"/>
-      <c r="F435" s="6"/>
-      <c r="G435" s="6"/>
-      <c r="H435" s="6"/>
-      <c r="I435" s="6"/>
+      <c r="A433" s="30"/>
+      <c r="B433" s="30"/>
+      <c r="C433"/>
+      <c r="D433" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E433" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F433" s="30"/>
+      <c r="G433" s="30"/>
+      <c r="H433" s="30"/>
+      <c r="I433" s="30"/>
+    </row>
+    <row r="434" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A434" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B434" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C434" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F434" s="11"/>
+      <c r="G434" s="11"/>
+      <c r="H434" s="11"/>
+      <c r="I434" s="11"/>
+    </row>
+    <row r="435" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A435" s="29"/>
+      <c r="B435" s="29"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F435" s="29"/>
+      <c r="G435" s="29"/>
+      <c r="H435" s="29"/>
+      <c r="I435" s="29"/>
     </row>
     <row r="436" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A436" s="6"/>
-      <c r="B436" s="6"/>
-      <c r="C436" s="6"/>
-      <c r="D436" s="6"/>
-      <c r="E436" s="6"/>
-      <c r="F436" s="6"/>
-      <c r="G436" s="6"/>
-      <c r="H436" s="6"/>
-      <c r="I436" s="6"/>
+      <c r="A436" s="29"/>
+      <c r="B436" s="29"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F436" s="29"/>
+      <c r="G436" s="29"/>
+      <c r="H436" s="29"/>
+      <c r="I436" s="29"/>
     </row>
     <row r="437" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A437" s="6"/>
-      <c r="B437" s="6"/>
-      <c r="C437" s="6"/>
-      <c r="D437" s="6"/>
-      <c r="E437" s="6"/>
-      <c r="F437" s="6"/>
-      <c r="G437" s="6"/>
-      <c r="H437" s="6"/>
-      <c r="I437" s="6"/>
+      <c r="A437" s="30"/>
+      <c r="B437" s="30"/>
+      <c r="C437"/>
+      <c r="D437" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E437" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="F437" s="30"/>
+      <c r="G437" s="30"/>
+      <c r="H437" s="30"/>
+      <c r="I437" s="30"/>
     </row>
     <row r="438" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A438" s="6"/>
-      <c r="B438" s="6"/>
-      <c r="C438" s="6"/>
-      <c r="D438" s="6"/>
-      <c r="E438" s="6"/>
-      <c r="F438" s="6"/>
-      <c r="G438" s="6"/>
-      <c r="H438" s="6"/>
-      <c r="I438" s="6"/>
-    </row>
-    <row r="439" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A439" s="6"/>
-      <c r="B439" s="6"/>
-      <c r="C439" s="6"/>
-      <c r="D439" s="6"/>
-      <c r="E439" s="6"/>
-      <c r="F439" s="6"/>
-      <c r="G439" s="6"/>
-      <c r="H439" s="6"/>
-      <c r="I439" s="6"/>
+      <c r="A438" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B438" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C438" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F438" s="11"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="11"/>
+      <c r="I438" s="11"/>
+    </row>
+    <row r="439" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A439" s="29"/>
+      <c r="B439" s="29"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F439" s="29"/>
+      <c r="G439" s="29"/>
+      <c r="H439" s="29"/>
+      <c r="I439" s="29"/>
     </row>
     <row r="440" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A440" s="6"/>
-      <c r="B440" s="6"/>
-      <c r="C440" s="6"/>
-      <c r="D440" s="6"/>
-      <c r="E440" s="6"/>
-      <c r="F440" s="6"/>
-      <c r="G440" s="6"/>
-      <c r="H440" s="6"/>
-      <c r="I440" s="6"/>
+      <c r="A440" s="29"/>
+      <c r="B440" s="29"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F440" s="29"/>
+      <c r="G440" s="29"/>
+      <c r="H440" s="29"/>
+      <c r="I440" s="29"/>
     </row>
     <row r="441" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A441" s="6"/>
-      <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
-      <c r="D441" s="6"/>
-      <c r="E441" s="6"/>
-      <c r="F441" s="6"/>
-      <c r="G441" s="6"/>
-      <c r="H441" s="6"/>
-      <c r="I441" s="6"/>
+      <c r="A441" s="30"/>
+      <c r="B441" s="30"/>
+      <c r="C441"/>
+      <c r="D441" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E441" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="F441" s="30"/>
+      <c r="G441" s="30"/>
+      <c r="H441" s="30"/>
+      <c r="I441" s="30"/>
     </row>
     <row r="442" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A442" s="6"/>
-      <c r="B442" s="6"/>
-      <c r="C442" s="6"/>
-      <c r="D442" s="6"/>
-      <c r="E442" s="6"/>
-      <c r="F442" s="6"/>
-      <c r="G442" s="6"/>
-      <c r="H442" s="6"/>
-      <c r="I442" s="6"/>
-    </row>
-    <row r="443" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A443" s="6"/>
-      <c r="B443" s="6"/>
-      <c r="C443" s="6"/>
-      <c r="D443" s="6"/>
-      <c r="E443" s="6"/>
-      <c r="F443" s="6"/>
-      <c r="G443" s="6"/>
-      <c r="H443" s="6"/>
-      <c r="I443" s="6"/>
+      <c r="A442" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B442" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="11"/>
+      <c r="I442" s="11"/>
+    </row>
+    <row r="443" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A443" s="29"/>
+      <c r="B443" s="29"/>
+      <c r="C443" s="29"/>
+      <c r="D443" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F443" s="29"/>
+      <c r="G443" s="29"/>
+      <c r="H443" s="29"/>
+      <c r="I443" s="29"/>
     </row>
     <row r="444" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A444" s="6"/>
-      <c r="B444" s="6"/>
-      <c r="C444" s="6"/>
-      <c r="D444" s="6"/>
-      <c r="E444" s="6"/>
-      <c r="F444" s="6"/>
-      <c r="G444" s="6"/>
-      <c r="H444" s="6"/>
-      <c r="I444" s="6"/>
+      <c r="A444" s="29"/>
+      <c r="B444" s="29"/>
+      <c r="C444" s="29"/>
+      <c r="D444" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F444" s="29"/>
+      <c r="G444" s="29"/>
+      <c r="H444" s="29"/>
+      <c r="I444" s="29"/>
     </row>
     <row r="445" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A445" s="6"/>
-      <c r="B445" s="6"/>
-      <c r="C445" s="6"/>
-      <c r="D445" s="6"/>
-      <c r="E445" s="6"/>
-      <c r="F445" s="6"/>
-      <c r="G445" s="6"/>
-      <c r="H445" s="6"/>
-      <c r="I445" s="6"/>
+      <c r="A445" s="30"/>
+      <c r="B445" s="30"/>
+      <c r="C445" s="30"/>
+      <c r="D445" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E445" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="F445" s="30"/>
+      <c r="G445" s="30"/>
+      <c r="H445" s="30"/>
+      <c r="I445" s="30"/>
     </row>
     <row r="446" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A446" s="6"/>
-      <c r="B446" s="6"/>
-      <c r="C446" s="6"/>
-      <c r="D446" s="6"/>
-      <c r="E446" s="6"/>
-      <c r="F446" s="6"/>
-      <c r="G446" s="6"/>
-      <c r="H446" s="6"/>
-      <c r="I446" s="6"/>
-    </row>
-    <row r="447" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A447" s="6"/>
-      <c r="B447" s="6"/>
-      <c r="C447" s="6"/>
-      <c r="D447" s="6"/>
-      <c r="E447" s="6"/>
-      <c r="F447" s="6"/>
-      <c r="G447" s="6"/>
-      <c r="H447" s="6"/>
-      <c r="I447" s="6"/>
+      <c r="A446" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C446" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F446" s="31"/>
+      <c r="G446" s="31"/>
+      <c r="H446" s="31"/>
+      <c r="I446" s="31"/>
+    </row>
+    <row r="447" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A447" s="29"/>
+      <c r="B447" s="9"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F447" s="29"/>
+      <c r="G447" s="29"/>
+      <c r="H447" s="29"/>
+      <c r="I447" s="29"/>
     </row>
     <row r="448" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A448" s="6"/>
-      <c r="B448" s="6"/>
-      <c r="C448" s="6"/>
-      <c r="D448" s="6"/>
-      <c r="E448" s="6"/>
-      <c r="F448" s="6"/>
-      <c r="G448" s="6"/>
-      <c r="H448" s="6"/>
-      <c r="I448" s="6"/>
-    </row>
-    <row r="449" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A449" s="6"/>
-      <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
-      <c r="D449" s="6"/>
-      <c r="E449" s="6"/>
-      <c r="F449" s="6"/>
-      <c r="G449" s="6"/>
-      <c r="H449" s="6"/>
-      <c r="I449" s="6"/>
-    </row>
-    <row r="450" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A450" s="6"/>
-      <c r="B450" s="6"/>
-      <c r="C450" s="6"/>
-      <c r="D450" s="6"/>
-      <c r="E450" s="6"/>
-      <c r="F450" s="6"/>
-      <c r="G450" s="6"/>
-      <c r="H450" s="6"/>
-      <c r="I450" s="6"/>
+      <c r="A448" s="29"/>
+      <c r="B448" s="9"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F448" s="29"/>
+      <c r="G448" s="29"/>
+      <c r="H448" s="29"/>
+      <c r="I448" s="29"/>
+    </row>
+    <row r="449" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A449" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C449" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F449" s="31"/>
+      <c r="G449" s="31"/>
+      <c r="H449" s="31"/>
+      <c r="I449" s="31"/>
+    </row>
+    <row r="450" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A450" s="29"/>
+      <c r="B450" s="9"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F450" s="29"/>
+      <c r="G450" s="29"/>
+      <c r="H450" s="29"/>
+      <c r="I450" s="29"/>
     </row>
     <row r="451" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A451" s="6"/>
-      <c r="B451" s="6"/>
-      <c r="C451" s="6"/>
-      <c r="D451" s="6"/>
-      <c r="E451" s="6"/>
-      <c r="F451" s="6"/>
-      <c r="G451" s="6"/>
-      <c r="H451" s="6"/>
-      <c r="I451" s="6"/>
-    </row>
-    <row r="452" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A452" s="6"/>
-      <c r="B452" s="6"/>
-      <c r="C452" s="6"/>
-      <c r="D452" s="6"/>
-      <c r="E452" s="6"/>
-      <c r="F452" s="6"/>
-      <c r="G452" s="6"/>
-      <c r="H452" s="6"/>
-      <c r="I452" s="6"/>
-    </row>
-    <row r="453" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A453" s="6"/>
-      <c r="B453" s="6"/>
-      <c r="C453" s="6"/>
-      <c r="D453" s="6"/>
-      <c r="E453" s="6"/>
-      <c r="F453" s="6"/>
-      <c r="G453" s="6"/>
-      <c r="H453" s="6"/>
-      <c r="I453" s="6"/>
+      <c r="A451" s="29"/>
+      <c r="B451" s="9"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F451" s="29"/>
+      <c r="G451" s="29"/>
+      <c r="H451" s="29"/>
+      <c r="I451" s="29"/>
+    </row>
+    <row r="452" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A452" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B452" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C452" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F452" s="11"/>
+      <c r="G452" s="11"/>
+      <c r="H452" s="11"/>
+      <c r="I452" s="11"/>
+    </row>
+    <row r="453" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A453" s="29"/>
+      <c r="B453" s="29"/>
+      <c r="C453" s="12"/>
+      <c r="D453" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F453" s="29"/>
+      <c r="G453" s="29"/>
+      <c r="H453" s="29"/>
+      <c r="I453" s="29"/>
     </row>
     <row r="454" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A454" s="6"/>
-      <c r="B454" s="6"/>
-      <c r="C454" s="6"/>
-      <c r="D454" s="6"/>
-      <c r="E454" s="6"/>
-      <c r="F454" s="6"/>
-      <c r="G454" s="6"/>
-      <c r="H454" s="6"/>
-      <c r="I454" s="6"/>
+      <c r="A454" s="29"/>
+      <c r="B454" s="29"/>
+      <c r="C454" s="12"/>
+      <c r="D454" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F454" s="29"/>
+      <c r="G454" s="29"/>
+      <c r="H454" s="29"/>
+      <c r="I454" s="29"/>
     </row>
     <row r="455" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A455" s="6"/>
-      <c r="B455" s="6"/>
-      <c r="C455" s="6"/>
-      <c r="D455" s="6"/>
-      <c r="E455" s="6"/>
-      <c r="F455" s="6"/>
-      <c r="G455" s="6"/>
-      <c r="H455" s="6"/>
-      <c r="I455" s="6"/>
-    </row>
-    <row r="456" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A456" s="6"/>
-      <c r="B456" s="6"/>
-      <c r="C456" s="6"/>
-      <c r="D456" s="6"/>
-      <c r="E456" s="6"/>
-      <c r="F456" s="6"/>
-      <c r="G456" s="6"/>
-      <c r="H456" s="6"/>
-      <c r="I456" s="6"/>
-    </row>
-    <row r="457" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A457" s="6"/>
-      <c r="B457" s="6"/>
-      <c r="C457" s="6"/>
-      <c r="D457" s="6"/>
-      <c r="E457" s="6"/>
-      <c r="F457" s="6"/>
-      <c r="G457" s="6"/>
-      <c r="H457" s="6"/>
-      <c r="I457" s="6"/>
+      <c r="A455" s="30"/>
+      <c r="B455" s="30"/>
+      <c r="C455"/>
+      <c r="D455" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E455" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F455" s="30"/>
+      <c r="G455" s="30"/>
+      <c r="H455" s="30"/>
+      <c r="I455" s="30"/>
+    </row>
+    <row r="456" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A456" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B456" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F456" s="11"/>
+      <c r="G456" s="11"/>
+      <c r="H456" s="11"/>
+      <c r="I456" s="11"/>
+    </row>
+    <row r="457" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A457" s="29"/>
+      <c r="B457" s="29"/>
+      <c r="C457" s="12"/>
+      <c r="D457" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F457" s="29"/>
+      <c r="G457" s="29"/>
+      <c r="H457" s="29"/>
+      <c r="I457" s="29"/>
     </row>
     <row r="458" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A458" s="6"/>
-      <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
-      <c r="D458" s="6"/>
-      <c r="E458" s="6"/>
-      <c r="F458" s="6"/>
-      <c r="G458" s="6"/>
-      <c r="H458" s="6"/>
-      <c r="I458" s="6"/>
+      <c r="A458" s="29"/>
+      <c r="B458" s="29"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F458" s="29"/>
+      <c r="G458" s="29"/>
+      <c r="H458" s="29"/>
+      <c r="I458" s="29"/>
     </row>
     <row r="459" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A459" s="6"/>
-      <c r="B459" s="6"/>
-      <c r="C459" s="6"/>
-      <c r="D459" s="6"/>
-      <c r="E459" s="6"/>
-      <c r="F459" s="6"/>
-      <c r="G459" s="6"/>
-      <c r="H459" s="6"/>
-      <c r="I459" s="6"/>
+      <c r="A459" s="30"/>
+      <c r="B459" s="30"/>
+      <c r="C459"/>
+      <c r="D459" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E459" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F459" s="30"/>
+      <c r="G459" s="30"/>
+      <c r="H459" s="30"/>
+      <c r="I459" s="30"/>
     </row>
     <row r="460" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A460" s="6"/>
-      <c r="B460" s="6"/>
-      <c r="C460" s="6"/>
-      <c r="D460" s="6"/>
-      <c r="E460" s="6"/>
-      <c r="F460" s="6"/>
-      <c r="G460" s="6"/>
-      <c r="H460" s="6"/>
-      <c r="I460" s="6"/>
-    </row>
-    <row r="461" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A461" s="6"/>
-      <c r="B461" s="6"/>
-      <c r="C461" s="6"/>
-      <c r="D461" s="6"/>
-      <c r="E461" s="6"/>
-      <c r="F461" s="6"/>
-      <c r="G461" s="6"/>
-      <c r="H461" s="6"/>
-      <c r="I461" s="6"/>
+      <c r="A460" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B460" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C460" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F460" s="11"/>
+      <c r="G460" s="11"/>
+      <c r="H460" s="11"/>
+      <c r="I460" s="11"/>
+    </row>
+    <row r="461" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A461" s="29"/>
+      <c r="B461" s="29"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F461" s="29"/>
+      <c r="G461" s="29"/>
+      <c r="H461" s="29"/>
+      <c r="I461" s="29"/>
     </row>
     <row r="462" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A462" s="6"/>
-      <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
-      <c r="D462" s="6"/>
-      <c r="E462" s="6"/>
-      <c r="F462" s="6"/>
-      <c r="G462" s="6"/>
-      <c r="H462" s="6"/>
-      <c r="I462" s="6"/>
+      <c r="A462" s="29"/>
+      <c r="B462" s="29"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F462" s="29"/>
+      <c r="G462" s="29"/>
+      <c r="H462" s="29"/>
+      <c r="I462" s="29"/>
     </row>
     <row r="463" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A463" s="6"/>
-      <c r="B463" s="6"/>
-      <c r="C463" s="6"/>
-      <c r="D463" s="6"/>
-      <c r="E463" s="6"/>
-      <c r="F463" s="6"/>
-      <c r="G463" s="6"/>
-      <c r="H463" s="6"/>
-      <c r="I463" s="6"/>
+      <c r="A463" s="30"/>
+      <c r="B463" s="30"/>
+      <c r="C463" s="25"/>
+      <c r="D463" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E463" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="F463" s="30"/>
+      <c r="G463" s="30"/>
+      <c r="H463" s="30"/>
+      <c r="I463" s="30"/>
     </row>
     <row r="464" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="6"/>
@@ -12839,8 +13524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00380769-3423-4833-98C2-8F95D52BAF88}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:I68"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13966,7 +14651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591EBEFF-7081-40E3-8BE7-3CDC94857948}">
   <dimension ref="A1:I150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection sqref="A1:I150"/>
     </sheetView>
   </sheetViews>
@@ -16336,12 +17021,1312 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACB2B43-76B9-4D56-BD0E-34E8A84F4DDA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D8" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D12" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D13" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D17" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D18" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="29"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D22" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D23" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D24" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D28" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D29" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D30" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D34" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D35" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+    </row>
+    <row r="37" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="29"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+    </row>
+    <row r="39" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D39" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="29"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D43" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="29"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="29"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D47" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D48" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9B0E11-F2C2-4F04-821A-B0914D1885FF}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="62" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="29"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="29"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D8" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="29"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D12" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="29"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="29"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D20" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="29"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="29"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D30" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="29"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="29"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D34" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+    </row>
+    <row r="36" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="29"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="29"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+    </row>
+    <row r="38" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="D38" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>